--- a/area_df_clean.xlsx
+++ b/area_df_clean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>city</t>
   </si>
@@ -82,9 +82,6 @@
     <t>494</t>
   </si>
   <si>
-    <t>538</t>
-  </si>
-  <si>
     <t>539</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>1209</t>
   </si>
   <si>
-    <t>1210</t>
-  </si>
-  <si>
     <t>1223</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>831</t>
   </si>
   <si>
-    <t>832</t>
-  </si>
-  <si>
     <t>323</t>
   </si>
   <si>
@@ -169,10 +160,13 @@
     <t>89</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>24.44724,120.70499</t>
   </si>
   <si>
-    <t>24.37668,120.70858</t>
+    <t>24.37674,120.70858</t>
   </si>
   <si>
     <t>24.37605,120.70881</t>
@@ -181,9 +175,6 @@
     <t>24.38844,120.70236</t>
   </si>
   <si>
-    <t>24.51199,120.70938</t>
-  </si>
-  <si>
     <t>24.51185,120.70892</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>24.51375,120.68994</t>
   </si>
   <si>
-    <t>24.51389,120.68954</t>
-  </si>
-  <si>
     <t>24.51378,120.68904</t>
   </si>
   <si>
@@ -235,16 +223,13 @@
     <t>24.51764,120.68777</t>
   </si>
   <si>
-    <t>24.51726,120.68873</t>
+    <t>24.51728,120.68875</t>
   </si>
   <si>
     <t>24.51704,120.68880</t>
   </si>
   <si>
-    <t>24.51730,120.68809</t>
-  </si>
-  <si>
-    <t>24.44329,120.70565</t>
+    <t>24.44328,120.70565</t>
   </si>
   <si>
     <t>24.50504,120.70048</t>
@@ -265,7 +250,10 @@
     <t>24.46740,120.83608</t>
   </si>
   <si>
-    <t>24.50202,120.70065</t>
+    <t>24.50201,120.70065</t>
+  </si>
+  <si>
+    <t>24.50152,120.69984</t>
   </si>
 </sst>
 </file>
@@ -623,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>24.44724</v>
@@ -695,10 +683,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>24.37668</v>
+        <v>24.37674</v>
       </c>
       <c r="H3">
         <v>120.70858</v>
@@ -721,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>24.37605</v>
@@ -747,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>24.38844</v>
@@ -773,13 +761,13 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>24.51199</v>
+        <v>24.51185</v>
       </c>
       <c r="H6">
-        <v>120.70938</v>
+        <v>120.70892</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -799,13 +787,13 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7">
-        <v>24.51185</v>
+        <v>24.51149</v>
       </c>
       <c r="H7">
-        <v>120.70892</v>
+        <v>120.70919</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -825,13 +813,13 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8">
-        <v>24.51149</v>
+        <v>24.51214</v>
       </c>
       <c r="H8">
-        <v>120.70919</v>
+        <v>120.70883</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -851,13 +839,13 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>24.51214</v>
+        <v>24.51241</v>
       </c>
       <c r="H9">
-        <v>120.70883</v>
+        <v>120.7092</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -877,13 +865,13 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>24.51241</v>
+        <v>24.51153</v>
       </c>
       <c r="H10">
-        <v>120.7092</v>
+        <v>120.70972</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -903,13 +891,13 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>24.51153</v>
+        <v>24.51116</v>
       </c>
       <c r="H11">
-        <v>120.70972</v>
+        <v>120.70924</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -929,13 +917,13 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12">
-        <v>24.51116</v>
+        <v>24.512</v>
       </c>
       <c r="H12">
-        <v>120.70924</v>
+        <v>120.7098</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -955,13 +943,13 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13">
-        <v>24.512</v>
+        <v>24.51137</v>
       </c>
       <c r="H13">
-        <v>120.7098</v>
+        <v>120.70977</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -975,19 +963,19 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>24.51137</v>
+        <v>24.51161</v>
       </c>
       <c r="H14">
-        <v>120.70977</v>
+        <v>120.68556</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1007,13 +995,13 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>24.51161</v>
+        <v>24.51124</v>
       </c>
       <c r="H15">
-        <v>120.68556</v>
+        <v>120.68648</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1033,13 +1021,13 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>24.51124</v>
+        <v>24.51146</v>
       </c>
       <c r="H16">
-        <v>120.68648</v>
+        <v>120.68552</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1053,19 +1041,19 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>24.51146</v>
+        <v>24.51375</v>
       </c>
       <c r="H17">
-        <v>120.68552</v>
+        <v>120.68994</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1085,13 +1073,13 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>24.51375</v>
+        <v>24.51378</v>
       </c>
       <c r="H18">
-        <v>120.68994</v>
+        <v>120.68904</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1111,13 +1099,13 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19">
-        <v>24.51389</v>
+        <v>24.51364</v>
       </c>
       <c r="H19">
-        <v>120.68954</v>
+        <v>120.6896</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1137,13 +1125,13 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20">
-        <v>24.51378</v>
+        <v>24.51339</v>
       </c>
       <c r="H20">
-        <v>120.68904</v>
+        <v>120.68981</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1163,13 +1151,13 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21">
-        <v>24.51364</v>
+        <v>24.51764</v>
       </c>
       <c r="H21">
-        <v>120.6896</v>
+        <v>120.68777</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1189,13 +1177,13 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22">
-        <v>24.51339</v>
+        <v>24.51728</v>
       </c>
       <c r="H22">
-        <v>120.68981</v>
+        <v>120.68875</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1215,13 +1203,13 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23">
-        <v>24.51764</v>
+        <v>24.51704</v>
       </c>
       <c r="H23">
-        <v>120.68777</v>
+        <v>120.6888</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1235,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24">
-        <v>24.51726</v>
+        <v>24.44328</v>
       </c>
       <c r="H24">
-        <v>120.68873</v>
+        <v>120.70565</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1261,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25">
-        <v>24.51704</v>
+        <v>24.50504</v>
       </c>
       <c r="H25">
-        <v>120.6888</v>
+        <v>120.70048</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1287,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26">
-        <v>24.5173</v>
+        <v>24.50538</v>
       </c>
       <c r="H26">
-        <v>120.68809</v>
+        <v>120.70012</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1313,19 +1301,19 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27">
-        <v>24.44329</v>
+        <v>24.50513</v>
       </c>
       <c r="H27">
-        <v>120.70565</v>
+        <v>120.69987</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1345,13 +1333,13 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>24.50504</v>
+        <v>24.50483</v>
       </c>
       <c r="H28">
-        <v>120.70048</v>
+        <v>120.69983</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1371,13 +1359,13 @@
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29">
-        <v>24.50538</v>
+        <v>24.50505</v>
       </c>
       <c r="H29">
-        <v>120.70012</v>
+        <v>120.69953</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1388,22 +1376,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30">
-        <v>24.50513</v>
+        <v>24.4674</v>
       </c>
       <c r="H30">
-        <v>120.69987</v>
+        <v>120.83608</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1417,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G31">
-        <v>24.50483</v>
+        <v>24.50201</v>
       </c>
       <c r="H31">
-        <v>120.69983</v>
+        <v>120.70065</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1443,71 +1431,19 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G32">
-        <v>24.50505</v>
+        <v>24.50152</v>
       </c>
       <c r="H32">
-        <v>120.69953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33">
-        <v>24.4674</v>
-      </c>
-      <c r="H33">
-        <v>120.83608</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34">
-        <v>24.50202</v>
-      </c>
-      <c r="H34">
-        <v>120.70065</v>
+        <v>120.69984</v>
       </c>
     </row>
   </sheetData>

--- a/area_df_clean.xlsx
+++ b/area_df_clean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
   <si>
     <t>city</t>
   </si>
@@ -163,6 +163,12 @@
     <t>90</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>24.44724,120.70499</t>
   </si>
   <si>
@@ -254,6 +260,12 @@
   </si>
   <si>
     <t>24.50152,120.69984</t>
+  </si>
+  <si>
+    <t>24.50121,120.69982</t>
+  </si>
+  <si>
+    <t>24.50166,120.69971</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>24.44724</v>
@@ -683,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>24.37674</v>
@@ -709,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>24.37605</v>
@@ -735,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>24.38844</v>
@@ -761,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>24.51185</v>
@@ -787,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>24.51149</v>
@@ -813,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>24.51214</v>
@@ -839,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>24.51241</v>
@@ -865,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>24.51153</v>
@@ -891,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>24.51116</v>
@@ -917,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>24.512</v>
@@ -943,7 +955,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>24.51137</v>
@@ -969,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14">
         <v>24.51161</v>
@@ -995,7 +1007,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15">
         <v>24.51124</v>
@@ -1021,7 +1033,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>24.51146</v>
@@ -1047,7 +1059,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>24.51375</v>
@@ -1073,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>24.51378</v>
@@ -1099,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19">
         <v>24.51364</v>
@@ -1125,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>24.51339</v>
@@ -1151,7 +1163,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>24.51764</v>
@@ -1177,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22">
         <v>24.51728</v>
@@ -1203,7 +1215,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23">
         <v>24.51704</v>
@@ -1229,7 +1241,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G24">
         <v>24.44328</v>
@@ -1255,7 +1267,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <v>24.50504</v>
@@ -1281,7 +1293,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G26">
         <v>24.50538</v>
@@ -1307,7 +1319,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27">
         <v>24.50513</v>
@@ -1333,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G28">
         <v>24.50483</v>
@@ -1359,7 +1371,7 @@
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29">
         <v>24.50505</v>
@@ -1385,7 +1397,7 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G30">
         <v>24.4674</v>
@@ -1411,7 +1423,7 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G31">
         <v>24.50201</v>
@@ -1437,13 +1449,65 @@
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32">
         <v>24.50152</v>
       </c>
       <c r="H32">
         <v>120.69984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33">
+        <v>24.50121</v>
+      </c>
+      <c r="H33">
+        <v>120.69982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34">
+        <v>24.50166</v>
+      </c>
+      <c r="H34">
+        <v>120.69971</v>
       </c>
     </row>
   </sheetData>

--- a/area_df_clean.xlsx
+++ b/area_df_clean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>city</t>
   </si>
@@ -46,9 +46,6 @@
     <t>苑裡鎮</t>
   </si>
   <si>
-    <t>公館鄉</t>
-  </si>
-  <si>
     <t>大坪頂段</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>通灣段</t>
   </si>
   <si>
-    <t>福東段</t>
-  </si>
-  <si>
-    <t>內湖西段</t>
-  </si>
-  <si>
     <t xml:space="preserve">140-30 </t>
   </si>
   <si>
@@ -82,6 +73,9 @@
     <t>494</t>
   </si>
   <si>
+    <t>538</t>
+  </si>
+  <si>
     <t>539</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>1287</t>
   </si>
   <si>
-    <t>1289</t>
-  </si>
-  <si>
     <t>711-1</t>
   </si>
   <si>
@@ -118,12 +109,12 @@
     <t>1209</t>
   </si>
   <si>
+    <t>1210</t>
+  </si>
+  <si>
     <t>1223</t>
   </si>
   <si>
-    <t>1224</t>
-  </si>
-  <si>
     <t>1225</t>
   </si>
   <si>
@@ -136,43 +127,19 @@
     <t>831</t>
   </si>
   <si>
+    <t>832</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
     <t>1314</t>
   </si>
   <si>
-    <t>1314-1</t>
-  </si>
-  <si>
-    <t>1314-2</t>
-  </si>
-  <si>
-    <t>1315</t>
-  </si>
-  <si>
-    <t>685-6</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>24.44724,120.70499</t>
   </si>
   <si>
-    <t>24.37674,120.70858</t>
+    <t>24.37669,120.70860</t>
   </si>
   <si>
     <t>24.37605,120.70881</t>
@@ -181,6 +148,9 @@
     <t>24.38844,120.70236</t>
   </si>
   <si>
+    <t>24.51199,120.70938</t>
+  </si>
+  <si>
     <t>24.51185,120.70892</t>
   </si>
   <si>
@@ -202,9 +172,6 @@
     <t>24.51200,120.70980</t>
   </si>
   <si>
-    <t>24.51137,120.70977</t>
-  </si>
-  <si>
     <t>24.51161,120.68556</t>
   </si>
   <si>
@@ -217,55 +184,31 @@
     <t>24.51375,120.68994</t>
   </si>
   <si>
+    <t>24.51388,120.68954</t>
+  </si>
+  <si>
     <t>24.51378,120.68904</t>
   </si>
   <si>
-    <t>24.51364,120.68960</t>
-  </si>
-  <si>
     <t>24.51339,120.68981</t>
   </si>
   <si>
     <t>24.51764,120.68777</t>
   </si>
   <si>
-    <t>24.51728,120.68875</t>
+    <t>24.51725,120.68873</t>
   </si>
   <si>
     <t>24.51704,120.68880</t>
   </si>
   <si>
+    <t>24.51730,120.68809</t>
+  </si>
+  <si>
     <t>24.44328,120.70565</t>
   </si>
   <si>
     <t>24.50504,120.70048</t>
-  </si>
-  <si>
-    <t>24.50538,120.70012</t>
-  </si>
-  <si>
-    <t>24.50513,120.69987</t>
-  </si>
-  <si>
-    <t>24.50483,120.69983</t>
-  </si>
-  <si>
-    <t>24.50505,120.69953</t>
-  </si>
-  <si>
-    <t>24.46740,120.83608</t>
-  </si>
-  <si>
-    <t>24.50201,120.70065</t>
-  </si>
-  <si>
-    <t>24.50152,120.69984</t>
-  </si>
-  <si>
-    <t>24.50121,120.69982</t>
-  </si>
-  <si>
-    <t>24.50166,120.69971</t>
   </si>
 </sst>
 </file>
@@ -623,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,13 +606,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>24.44724</v>
@@ -689,19 +632,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>24.37674</v>
+        <v>24.37669</v>
       </c>
       <c r="H3">
-        <v>120.70858</v>
+        <v>120.7086</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -715,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>24.37605</v>
@@ -741,13 +684,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>24.38844</v>
@@ -767,19 +710,19 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>24.51185</v>
+        <v>24.51199</v>
       </c>
       <c r="H6">
-        <v>120.70892</v>
+        <v>120.70938</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -793,19 +736,19 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>24.51149</v>
+        <v>24.51185</v>
       </c>
       <c r="H7">
-        <v>120.70919</v>
+        <v>120.70892</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -819,19 +762,19 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>24.51214</v>
+        <v>24.51149</v>
       </c>
       <c r="H8">
-        <v>120.70883</v>
+        <v>120.70919</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -845,19 +788,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>24.51241</v>
+        <v>24.51214</v>
       </c>
       <c r="H9">
-        <v>120.7092</v>
+        <v>120.70883</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -871,19 +814,19 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>24.51153</v>
+        <v>24.51241</v>
       </c>
       <c r="H10">
-        <v>120.70972</v>
+        <v>120.7092</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -897,19 +840,19 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>24.51116</v>
+        <v>24.51153</v>
       </c>
       <c r="H11">
-        <v>120.70924</v>
+        <v>120.70972</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -923,19 +866,19 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>24.512</v>
+        <v>24.51116</v>
       </c>
       <c r="H12">
-        <v>120.7098</v>
+        <v>120.70924</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -949,19 +892,19 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G13">
-        <v>24.51137</v>
+        <v>24.512</v>
       </c>
       <c r="H13">
-        <v>120.70977</v>
+        <v>120.7098</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -975,13 +918,13 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>24.51161</v>
@@ -1001,13 +944,13 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>24.51124</v>
@@ -1027,13 +970,13 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>24.51146</v>
@@ -1053,13 +996,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>24.51375</v>
@@ -1079,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>24.51378</v>
+        <v>24.51388</v>
       </c>
       <c r="H18">
-        <v>120.68904</v>
+        <v>120.68954</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1105,19 +1048,19 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G19">
-        <v>24.51364</v>
+        <v>24.51378</v>
       </c>
       <c r="H19">
-        <v>120.6896</v>
+        <v>120.68904</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1131,13 +1074,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>24.51339</v>
@@ -1157,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G21">
         <v>24.51764</v>
@@ -1183,19 +1126,19 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>24.51728</v>
+        <v>24.51725</v>
       </c>
       <c r="H22">
-        <v>120.68875</v>
+        <v>120.68873</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1209,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>24.51704</v>
@@ -1235,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G24">
-        <v>24.44328</v>
+        <v>24.5173</v>
       </c>
       <c r="H24">
-        <v>120.70565</v>
+        <v>120.68809</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1261,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G25">
-        <v>24.50504</v>
+        <v>24.44328</v>
       </c>
       <c r="H25">
-        <v>120.70048</v>
+        <v>120.70565</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1287,227 +1230,19 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G26">
-        <v>24.50538</v>
+        <v>24.50504</v>
       </c>
       <c r="H26">
-        <v>120.70012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27">
-        <v>24.50513</v>
-      </c>
-      <c r="H27">
-        <v>120.69987</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28">
-        <v>24.50483</v>
-      </c>
-      <c r="H28">
-        <v>120.69983</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29">
-        <v>24.50505</v>
-      </c>
-      <c r="H29">
-        <v>120.69953</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30">
-        <v>24.4674</v>
-      </c>
-      <c r="H30">
-        <v>120.83608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31">
-        <v>24.50201</v>
-      </c>
-      <c r="H31">
-        <v>120.70065</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32">
-        <v>24.50152</v>
-      </c>
-      <c r="H32">
-        <v>120.69984</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33">
-        <v>24.50121</v>
-      </c>
-      <c r="H33">
-        <v>120.69982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34">
-        <v>24.50166</v>
-      </c>
-      <c r="H34">
-        <v>120.69971</v>
+        <v>120.70048</v>
       </c>
     </row>
   </sheetData>
